--- a/test.xlsx
+++ b/test.xlsx
@@ -701,6 +701,78 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -718,78 +790,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1094,8 +1094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1139,192 +1139,192 @@
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
-      <c r="S1" s="64" t="s">
+      <c r="S1" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
     </row>
     <row r="2" spans="1:22" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="67"/>
-      <c r="V2" s="67"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="77"/>
+      <c r="S2" s="77"/>
+      <c r="T2" s="77"/>
+      <c r="U2" s="77"/>
+      <c r="V2" s="77"/>
     </row>
     <row r="3" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="65"/>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65"/>
-      <c r="V3" s="65"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="75"/>
+      <c r="O3" s="75"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="75"/>
+      <c r="R3" s="75"/>
+      <c r="S3" s="75"/>
+      <c r="T3" s="75"/>
+      <c r="U3" s="75"/>
+      <c r="V3" s="75"/>
     </row>
     <row r="4" spans="1:22" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="66"/>
-      <c r="R4" s="66"/>
-      <c r="S4" s="66"/>
-      <c r="T4" s="66"/>
-      <c r="U4" s="66"/>
-      <c r="V4" s="66"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="76"/>
+      <c r="Q4" s="76"/>
+      <c r="R4" s="76"/>
+      <c r="S4" s="76"/>
+      <c r="T4" s="76"/>
+      <c r="U4" s="76"/>
+      <c r="V4" s="76"/>
     </row>
     <row r="5" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="61" t="s">
+      <c r="D5" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="60" t="s">
+      <c r="E5" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="61" t="s">
+      <c r="F5" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="60" t="s">
+      <c r="G5" s="74" t="s">
         <v>76</v>
       </c>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="60"/>
-      <c r="N5" s="60"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="60"/>
-      <c r="R5" s="60"/>
-      <c r="S5" s="60"/>
-      <c r="T5" s="60"/>
-      <c r="U5" s="60" t="s">
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="74"/>
+      <c r="T5" s="74"/>
+      <c r="U5" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="V5" s="60" t="s">
+      <c r="V5" s="74" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="60"/>
-      <c r="N6" s="60"/>
-      <c r="O6" s="60"/>
-      <c r="P6" s="60"/>
-      <c r="Q6" s="60"/>
-      <c r="R6" s="60"/>
-      <c r="S6" s="60"/>
-      <c r="T6" s="60"/>
-      <c r="U6" s="60"/>
-      <c r="V6" s="60"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="74"/>
+      <c r="O6" s="74"/>
+      <c r="P6" s="74"/>
+      <c r="Q6" s="74"/>
+      <c r="R6" s="74"/>
+      <c r="S6" s="74"/>
+      <c r="T6" s="74"/>
+      <c r="U6" s="74"/>
+      <c r="V6" s="74"/>
     </row>
     <row r="7" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60" t="s">
+      <c r="B7" s="82"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="K7" s="60"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="60" t="s">
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="N7" s="60"/>
-      <c r="O7" s="60" t="s">
+      <c r="N7" s="74"/>
+      <c r="O7" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="P7" s="60"/>
-      <c r="Q7" s="60" t="s">
+      <c r="P7" s="74"/>
+      <c r="Q7" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="R7" s="60"/>
-      <c r="S7" s="60" t="s">
+      <c r="R7" s="74"/>
+      <c r="S7" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="T7" s="60"/>
-      <c r="U7" s="60"/>
-      <c r="V7" s="60"/>
+      <c r="T7" s="74"/>
+      <c r="U7" s="74"/>
+      <c r="V7" s="74"/>
     </row>
     <row r="8" spans="1:22" ht="122.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
-      <c r="B8" s="59"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="63"/>
+      <c r="B8" s="83"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="73"/>
       <c r="G8" s="7" t="s">
         <v>6</v>
       </c>
@@ -1367,8 +1367,8 @@
       <c r="T8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="U8" s="61"/>
-      <c r="V8" s="61"/>
+      <c r="U8" s="71"/>
+      <c r="V8" s="71"/>
     </row>
     <row r="9" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
@@ -1434,13 +1434,13 @@
     </row>
     <row r="10" spans="1:22" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="56"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="80"/>
       <c r="G10" s="4">
         <f>SUM(G12:G38)</f>
         <v>114</v>
@@ -1504,10 +1504,10 @@
     </row>
     <row r="11" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
-      <c r="B11" s="71" t="s">
+      <c r="B11" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="72"/>
+      <c r="C11" s="58"/>
       <c r="D11" s="10" t="s">
         <v>17</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:22" s="3" customFormat="1" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.3">
       <c r="A12" s="18"/>
       <c r="B12" s="38" t="s">
         <v>59</v>
@@ -3035,13 +3035,13 @@
     </row>
     <row r="39" spans="1:22" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
-      <c r="B39" s="81" t="s">
+      <c r="B39" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="82"/>
-      <c r="D39" s="82"/>
-      <c r="E39" s="82"/>
-      <c r="F39" s="83"/>
+      <c r="C39" s="68"/>
+      <c r="D39" s="68"/>
+      <c r="E39" s="68"/>
+      <c r="F39" s="69"/>
       <c r="G39" s="36">
         <f t="shared" ref="G39:V39" si="2">SUM(G40:G43)</f>
         <v>0</v>
@@ -3314,13 +3314,13 @@
     </row>
     <row r="44" spans="1:22" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6"/>
-      <c r="B44" s="78" t="s">
+      <c r="B44" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="C44" s="79"/>
-      <c r="D44" s="79"/>
-      <c r="E44" s="79"/>
-      <c r="F44" s="80"/>
+      <c r="C44" s="65"/>
+      <c r="D44" s="65"/>
+      <c r="E44" s="65"/>
+      <c r="F44" s="66"/>
       <c r="G44" s="5">
         <f t="shared" ref="G44:V44" si="3">SUM(G46:G53)</f>
         <v>30</v>
@@ -3382,10 +3382,10 @@
     </row>
     <row r="45" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A45" s="6"/>
-      <c r="B45" s="73" t="s">
+      <c r="B45" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C45" s="74"/>
+      <c r="C45" s="60"/>
       <c r="D45" s="10" t="s">
         <v>17</v>
       </c>
@@ -3814,13 +3814,13 @@
     </row>
     <row r="54" spans="1:22" s="3" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="18"/>
-      <c r="B54" s="78" t="s">
+      <c r="B54" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="C54" s="79"/>
-      <c r="D54" s="79"/>
-      <c r="E54" s="79"/>
-      <c r="F54" s="80"/>
+      <c r="C54" s="65"/>
+      <c r="D54" s="65"/>
+      <c r="E54" s="65"/>
+      <c r="F54" s="66"/>
       <c r="G54" s="5">
         <f t="shared" ref="G54:R54" ca="1" si="4">SUM(G53:G56)</f>
         <v>0</v>
@@ -3882,10 +3882,10 @@
     </row>
     <row r="55" spans="1:22" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A55" s="18"/>
-      <c r="B55" s="73" t="s">
+      <c r="B55" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="C55" s="74"/>
+      <c r="C55" s="60"/>
       <c r="D55" s="10" t="s">
         <v>17</v>
       </c>
@@ -3969,27 +3969,27 @@
     </row>
     <row r="57" spans="1:22" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A57" s="18"/>
-      <c r="B57" s="75" t="s">
+      <c r="B57" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="C57" s="76"/>
-      <c r="D57" s="76"/>
-      <c r="E57" s="76"/>
-      <c r="F57" s="76"/>
-      <c r="G57" s="76"/>
-      <c r="H57" s="76"/>
-      <c r="I57" s="76"/>
-      <c r="J57" s="76"/>
-      <c r="K57" s="76"/>
-      <c r="L57" s="76"/>
-      <c r="M57" s="76"/>
-      <c r="N57" s="76"/>
-      <c r="O57" s="76"/>
-      <c r="P57" s="76"/>
-      <c r="Q57" s="76"/>
-      <c r="R57" s="76"/>
-      <c r="S57" s="76"/>
-      <c r="T57" s="77"/>
+      <c r="C57" s="62"/>
+      <c r="D57" s="62"/>
+      <c r="E57" s="62"/>
+      <c r="F57" s="62"/>
+      <c r="G57" s="62"/>
+      <c r="H57" s="62"/>
+      <c r="I57" s="62"/>
+      <c r="J57" s="62"/>
+      <c r="K57" s="62"/>
+      <c r="L57" s="62"/>
+      <c r="M57" s="62"/>
+      <c r="N57" s="62"/>
+      <c r="O57" s="62"/>
+      <c r="P57" s="62"/>
+      <c r="Q57" s="62"/>
+      <c r="R57" s="62"/>
+      <c r="S57" s="62"/>
+      <c r="T57" s="63"/>
       <c r="U57" s="32">
         <f>U10+U39+U44+U54</f>
         <v>935</v>
@@ -4025,18 +4025,18 @@
     </row>
     <row r="59" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A59" s="6"/>
-      <c r="B59" s="68" t="s">
+      <c r="B59" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="C59" s="68"/>
-      <c r="D59" s="69" t="s">
+      <c r="C59" s="54"/>
+      <c r="D59" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="E59" s="70"/>
-      <c r="F59" s="70"/>
-      <c r="G59" s="70"/>
-      <c r="H59" s="70"/>
-      <c r="I59" s="70"/>
+      <c r="E59" s="56"/>
+      <c r="F59" s="56"/>
+      <c r="G59" s="56"/>
+      <c r="H59" s="56"/>
+      <c r="I59" s="56"/>
       <c r="J59" s="35"/>
       <c r="K59" s="35"/>
       <c r="L59" s="35"/>
@@ -4173,15 +4173,14 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:I59"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B57:T57"/>
-    <mergeCell ref="B54:F54"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="F5:F8"/>
+    <mergeCell ref="G7:I7"/>
     <mergeCell ref="S1:V1"/>
     <mergeCell ref="D5:D8"/>
     <mergeCell ref="C5:C8"/>
@@ -4193,14 +4192,15 @@
     <mergeCell ref="C4:V4"/>
     <mergeCell ref="G5:T6"/>
     <mergeCell ref="C2:V2"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="E5:E8"/>
-    <mergeCell ref="F5:F8"/>
-    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:I59"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B57:T57"/>
+    <mergeCell ref="B54:F54"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="B45:C45"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.39370078740157483" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
